--- a/Tables/LFS_population_urbur.xlsx
+++ b/Tables/LFS_population_urbur.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>7308.693698235322</v>
+        <v>7246.422148282174</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>3466.719481829554</v>
+        <v>3407.451201869175</v>
       </c>
     </row>
     <row r="4">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>6501.055880336091</v>
+        <v>6407.841835316271</v>
       </c>
     </row>
     <row r="5">
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>1877.313098524406</v>
+        <v>1868.958790569275</v>
       </c>
     </row>
     <row r="6">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>3242.244248275965</v>
+        <v>3217.835224707931</v>
       </c>
     </row>
     <row r="7">
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>1523.581424642354</v>
+        <v>1510.237247537822</v>
       </c>
     </row>
     <row r="8">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>2842.047720883042</v>
+        <v>2816.879715695977</v>
       </c>
     </row>
     <row r="9">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>2035.450065262616</v>
+        <v>2024.974182330072</v>
       </c>
     </row>
     <row r="10">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>2159.911332558841</v>
+        <v>2134.219133000821</v>
       </c>
     </row>
     <row r="11">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>682.6000259369612</v>
+        <v>676.4374323524535</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>1913.296954445541</v>
+        <v>1898.635578416288</v>
       </c>
     </row>
     <row r="13">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>1679.831972072832</v>
+        <v>1670.657044320367</v>
       </c>
     </row>
     <row r="14">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>489.4744288362563</v>
+        <v>485.2989325448871</v>
       </c>
     </row>
     <row r="15">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>796.9873633310199</v>
+        <v>790.0772543549538</v>
       </c>
     </row>
     <row r="16">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>1071.888860791922</v>
+        <v>1067.457096412778</v>
       </c>
     </row>
     <row r="17">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>1356.293379515409</v>
+        <v>1346.081802494824</v>
       </c>
     </row>
     <row r="18">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>1647.595800548792</v>
+        <v>1640.891188845038</v>
       </c>
     </row>
     <row r="19">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>1788.095003992319</v>
+        <v>1772.944710634649</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>4211.787619523704</v>
+        <v>4203.767023846507</v>
       </c>
     </row>
     <row r="21">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>2508.174253933132</v>
+        <v>2464.694871157408</v>
       </c>
     </row>
     <row r="22">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>1666.425997416489</v>
+        <v>1654.414522502106</v>
       </c>
     </row>
     <row r="23">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>2831.753418967128</v>
+        <v>2818.706995502114</v>
       </c>
     </row>
     <row r="24">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>2755.878435358405</v>
+        <v>2738.295788027346</v>
       </c>
     </row>
     <row r="25">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>2432.97576379776</v>
+        <v>2419.956720419228</v>
       </c>
     </row>
     <row r="26">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>2119.987812884152</v>
+        <v>2106.115939848125</v>
       </c>
     </row>
     <row r="27">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>2940.398837991059</v>
+        <v>2925.278712183237</v>
       </c>
     </row>
     <row r="28">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>3333.210432931781</v>
+        <v>3319.092219553888</v>
       </c>
     </row>
     <row r="29">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>2336.549956932664</v>
+        <v>2325.963633924723</v>
       </c>
     </row>
     <row r="30">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>2293.644501268864</v>
+        <v>2286.407834023237</v>
       </c>
     </row>
     <row r="31">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>23632.03560998663</v>
+        <v>23521.06178649887</v>
       </c>
     </row>
     <row r="32">
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>28077.1082951813</v>
+        <v>27933.54461376509</v>
       </c>
     </row>
     <row r="33">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>7398.922256670892</v>
+        <v>7392.833481244743</v>
       </c>
     </row>
     <row r="34">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>4954.000185206532</v>
+        <v>4949.056054495275</v>
       </c>
     </row>
     <row r="35">
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>1296.993671253324</v>
+        <v>1294.617556646466</v>
       </c>
     </row>
     <row r="36">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>3821.123620744795</v>
+        <v>3816.954357873648</v>
       </c>
     </row>
     <row r="37">
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>12599.17102875188</v>
+        <v>12555.19084711745</v>
       </c>
     </row>
     <row r="38">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>3028.559631377459</v>
+        <v>3023.644503831863</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>15885.16083604842</v>
+        <v>15804.21912956238</v>
       </c>
     </row>
     <row r="40">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>34778.17962640896</v>
+        <v>34672.53593325987</v>
       </c>
     </row>
     <row r="41">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>8229.572577729821</v>
+        <v>8193.423070669174</v>
       </c>
     </row>
     <row r="42">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>1908.994185492396</v>
+        <v>1903.368155315518</v>
       </c>
     </row>
     <row r="43">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>7790.607446288457</v>
+        <v>7775.979552073171</v>
       </c>
     </row>
     <row r="44">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>4064.859391674399</v>
+        <v>4059.698226772249</v>
       </c>
     </row>
     <row r="45">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>5818.537112381309</v>
+        <v>5791.440207947046</v>
       </c>
     </row>
     <row r="46">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>4107.083001792431</v>
+        <v>4101.50480248034</v>
       </c>
     </row>
     <row r="47">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>3813.315657473169</v>
+        <v>3802.934130125679</v>
       </c>
     </row>
     <row r="48">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>1565.348798072897</v>
+        <v>1558.697548192926</v>
       </c>
     </row>
     <row r="49">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="C49">
-        <v>2333.282158164307</v>
+        <v>2321.888135971501</v>
       </c>
     </row>
     <row r="50">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>2630.069194559008</v>
+        <v>2619.047576738521</v>
       </c>
     </row>
     <row r="51">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>1120.375531293452</v>
+        <v>1115.635725319386</v>
       </c>
     </row>
     <row r="52">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>2619.797031835653</v>
+        <v>2616.673027414363</v>
       </c>
     </row>
     <row r="53">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>5862.528219532222</v>
+        <v>5817.901247955859</v>
       </c>
     </row>
     <row r="54">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>282.6241546664387</v>
+        <v>270.5484999530017</v>
       </c>
     </row>
     <row r="55">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>515.6373487431556</v>
+        <v>499.4172894936055</v>
       </c>
     </row>
     <row r="56">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>922.8433508034796</v>
+        <v>884.2198134809732</v>
       </c>
     </row>
     <row r="57">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>824.8732731118798</v>
+        <v>788.5638856049627</v>
       </c>
     </row>
     <row r="58">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>2531.774322096258</v>
+        <v>2466.938618162647</v>
       </c>
     </row>
     <row r="59">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="C59">
-        <v>339.2965164911002</v>
+        <v>331.7537194918841</v>
       </c>
     </row>
     <row r="60">
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>436.085097450763</v>
+        <v>423.1177435489371</v>
       </c>
     </row>
     <row r="61">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>1026.32856881991</v>
+        <v>946.5636507552117</v>
       </c>
     </row>
     <row r="62">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>286.8614212330431</v>
+        <v>267.0262394156307</v>
       </c>
     </row>
     <row r="63">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="C63">
-        <v>905.6346698086709</v>
+        <v>833.3163765966892</v>
       </c>
     </row>
     <row r="64">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>776.5141168590635</v>
+        <v>738.2462562974542</v>
       </c>
     </row>
     <row r="65">
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="C65">
-        <v>831.3600163515657</v>
+        <v>780.9000343754888</v>
       </c>
     </row>
     <row r="66">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="C66">
-        <v>4332.058697799221</v>
+        <v>4308.155137816444</v>
       </c>
     </row>
     <row r="67">
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="C67">
-        <v>1550.771868124604</v>
+        <v>1544.823458060622</v>
       </c>
     </row>
     <row r="68">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>963.736929513514</v>
+        <v>960.7613994851708</v>
       </c>
     </row>
     <row r="69">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="C69">
-        <v>3704.925588510931</v>
+        <v>3697.863938622177</v>
       </c>
     </row>
     <row r="70">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="C70">
-        <v>1133.08029070124</v>
+        <v>1131.622720714658</v>
       </c>
     </row>
     <row r="71">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="C71">
-        <v>556.659960385412</v>
+        <v>554.8312404192984</v>
       </c>
     </row>
     <row r="72">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="C72">
-        <v>2310.94597212784</v>
+        <v>2299.260242147371</v>
       </c>
     </row>
     <row r="73">
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="C73">
-        <v>12269.67283415794</v>
+        <v>12228.76967436075</v>
       </c>
     </row>
     <row r="74">
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="C74">
-        <v>3914.861119303852</v>
+        <v>3891.094219256192</v>
       </c>
     </row>
     <row r="75">
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>3275.604019880295</v>
+        <v>3257.746209844947</v>
       </c>
     </row>
     <row r="76">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>1546.208560219035</v>
+        <v>1539.029900228605</v>
       </c>
     </row>
     <row r="77">
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>13580.80192478374</v>
+        <v>13531.29179481044</v>
       </c>
     </row>
     <row r="78">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>8210.965828984976</v>
+        <v>8176.604319095612</v>
       </c>
     </row>
     <row r="79">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>2212.073499329388</v>
+        <v>2200.554179377854</v>
       </c>
     </row>
     <row r="80">
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>12322.31427007541</v>
+        <v>12269.49537996575</v>
       </c>
     </row>
     <row r="81">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>2454.383211456239</v>
+        <v>2446.397801466286</v>
       </c>
     </row>
     <row r="82">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>106.9789401125163</v>
+        <v>106.7026100978255</v>
       </c>
     </row>
     <row r="83">
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="C83">
-        <v>122.2249397113919</v>
+        <v>122.0663297101855</v>
       </c>
     </row>
     <row r="84">
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="C84">
-        <v>3514.003670733422</v>
+        <v>3504.83133078739</v>
       </c>
     </row>
     <row r="85">
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>2491.560761727393</v>
+        <v>2476.572609879076</v>
       </c>
     </row>
     <row r="86">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="C86">
-        <v>3409.216534301639</v>
+        <v>3402.393111422658</v>
       </c>
     </row>
     <row r="87">
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="C87">
-        <v>2042.932891197503</v>
+        <v>2032.258734129369</v>
       </c>
     </row>
     <row r="88">
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="C88">
-        <v>2200.649827837944</v>
+        <v>2185.40206617862</v>
       </c>
     </row>
     <row r="89">
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="C89">
-        <v>62.68460957705975</v>
+        <v>62.56010957807302</v>
       </c>
     </row>
     <row r="90">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="C90">
-        <v>22163.29461602867</v>
+        <v>22136.5718165189</v>
       </c>
     </row>
     <row r="91">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="C91">
-        <v>4062.348924636841</v>
+        <v>4050.667940095067</v>
       </c>
     </row>
     <row r="92">
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="C92">
-        <v>2621.075401738286</v>
+        <v>2615.344818964601</v>
       </c>
     </row>
     <row r="93">
@@ -1751,7 +1751,7 @@
         </is>
       </c>
       <c r="C93">
-        <v>1868.779640838504</v>
+        <v>1862.585044130683</v>
       </c>
     </row>
     <row r="94">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="C94">
-        <v>2297.068319246173</v>
+        <v>2284.718699142337</v>
       </c>
     </row>
     <row r="95">
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>2943.524927020073</v>
+        <v>2936.211734831333</v>
       </c>
     </row>
     <row r="96">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="C96">
-        <v>6035.917947486043</v>
+        <v>6028.490624085069</v>
       </c>
     </row>
     <row r="97">
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="C97">
-        <v>2960.896439433098</v>
+        <v>2946.266590118408</v>
       </c>
     </row>
     <row r="98">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="C98">
-        <v>3360.039087697864</v>
+        <v>3348.739187881351</v>
       </c>
     </row>
     <row r="99">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="C99">
-        <v>1949.446369610727</v>
+        <v>1941.762964628637</v>
       </c>
     </row>
     <row r="100">
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="C100">
-        <v>3549.077671572566</v>
+        <v>3541.414404556155</v>
       </c>
     </row>
     <row r="101">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="C101">
-        <v>6273.651477277279</v>
+        <v>6259.533731162548</v>
       </c>
     </row>
     <row r="102">
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="C102">
-        <v>5416.925963133574</v>
+        <v>5397.88582727313</v>
       </c>
     </row>
     <row r="103">
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="C103">
-        <v>5746.281434699893</v>
+        <v>5727.286701843143</v>
       </c>
     </row>
     <row r="104">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="C104">
-        <v>1124.737777665257</v>
+        <v>1119.77961333096</v>
       </c>
     </row>
     <row r="105">
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="C105">
-        <v>2845.849662482738</v>
+        <v>2834.546079576015</v>
       </c>
     </row>
     <row r="106">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="C106">
-        <v>4210.729330345988</v>
+        <v>4190.127391263843</v>
       </c>
     </row>
     <row r="107">
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="C107">
-        <v>5078.28656193614</v>
+        <v>5062.875762373209</v>
       </c>
     </row>
     <row r="108">
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="C108">
-        <v>2201.418810814619</v>
+        <v>2196.1100718081</v>
       </c>
     </row>
     <row r="109">
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="C109">
-        <v>11461.32418848574</v>
+        <v>11425.75385148823</v>
       </c>
     </row>
     <row r="110">
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="C110">
-        <v>7959.856510400772</v>
+        <v>7929.834597766399</v>
       </c>
     </row>
     <row r="111">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="C111">
-        <v>552.3979418724775</v>
+        <v>551.1774496287107</v>
       </c>
     </row>
     <row r="112">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="C112">
-        <v>467.2084530331194</v>
+        <v>462.4405728913844</v>
       </c>
     </row>
     <row r="113">
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="C113">
-        <v>490.4345659501851</v>
+        <v>488.3404849655926</v>
       </c>
     </row>
     <row r="114">
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="C114">
-        <v>266.9651734931394</v>
+        <v>261.6633116798475</v>
       </c>
     </row>
     <row r="115">
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="C115">
-        <v>1051.324106916785</v>
+        <v>1043.068258330226</v>
       </c>
     </row>
     <row r="116">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="C116">
-        <v>406.1145768137649</v>
+        <v>390.9287046650425</v>
       </c>
     </row>
     <row r="117">
@@ -2111,7 +2111,7 @@
         </is>
       </c>
       <c r="C117">
-        <v>2132.093090691604</v>
+        <v>2114.174892925657</v>
       </c>
     </row>
     <row r="118">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="C118">
-        <v>3396.524963062257</v>
+        <v>3351.118055569008</v>
       </c>
     </row>
     <row r="119">
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="C119">
-        <v>362.8160046841949</v>
+        <v>361.8167428653687</v>
       </c>
     </row>
     <row r="120">
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="C120">
-        <v>372.4502597963437</v>
+        <v>368.4210147038102</v>
       </c>
     </row>
     <row r="121">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="C121">
-        <v>3408.14209655486</v>
+        <v>3404.171700930223</v>
       </c>
     </row>
     <row r="122">
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="C122">
-        <v>2489.033900254406</v>
+        <v>2483.984030636027</v>
       </c>
     </row>
     <row r="123">
@@ -2201,7 +2201,7 @@
         </is>
       </c>
       <c r="C123">
-        <v>2034.537853348069</v>
+        <v>2030.437478450127</v>
       </c>
     </row>
     <row r="124">
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="C124">
-        <v>1953.993084586691</v>
+        <v>1949.429265287705</v>
       </c>
     </row>
     <row r="125">
@@ -2231,7 +2231,7 @@
         </is>
       </c>
       <c r="C125">
-        <v>1488.058682886884</v>
+        <v>1484.058688274585</v>
       </c>
     </row>
     <row r="126">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="C126">
-        <v>1916.002561469562</v>
+        <v>1912.316659367643</v>
       </c>
     </row>
     <row r="127">
@@ -2261,7 +2261,7 @@
         </is>
       </c>
       <c r="C127">
-        <v>2548.940032039769</v>
+        <v>2542.231763969176</v>
       </c>
     </row>
     <row r="128">
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="C128">
-        <v>2245.202215116471</v>
+        <v>2234.862210414372</v>
       </c>
     </row>
     <row r="129">
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="C129">
-        <v>1594.964705063961</v>
+        <v>1576.425586805679</v>
       </c>
     </row>
     <row r="130">
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="C130">
-        <v>2960.233357643709</v>
+        <v>2933.172101716511</v>
       </c>
     </row>
     <row r="131">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="C131">
-        <v>4715.864390992559</v>
+        <v>4697.260952572338</v>
       </c>
     </row>
     <row r="132">
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="C132">
-        <v>7206.259973769076</v>
+        <v>7084.753723810427</v>
       </c>
     </row>
     <row r="133">
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="C133">
-        <v>217.0057004312985</v>
+        <v>213.7554004276171</v>
       </c>
     </row>
     <row r="134">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="C134">
-        <v>2417.035548802465</v>
+        <v>2385.761798873544</v>
       </c>
     </row>
     <row r="135">
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="C135">
-        <v>17647.77234557271</v>
+        <v>17473.13919559121</v>
       </c>
     </row>
     <row r="136">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="C136">
-        <v>1969.473623724654</v>
+        <v>1954.55129875429</v>
       </c>
     </row>
     <row r="137">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="C137">
-        <v>422.1706499340944</v>
+        <v>412.498899995815</v>
       </c>
     </row>
     <row r="138">
@@ -2426,7 +2426,7 @@
         </is>
       </c>
       <c r="C138">
-        <v>6519.265099182725</v>
+        <v>6451.890599157661</v>
       </c>
     </row>
     <row r="139">
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="C139">
-        <v>4881.060574794188</v>
+        <v>4806.64044980891</v>
       </c>
     </row>
     <row r="140">
@@ -2456,7 +2456,7 @@
         </is>
       </c>
       <c r="C140">
-        <v>752.9893000274897</v>
+        <v>738.9346249904484</v>
       </c>
     </row>
     <row r="141">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="C141">
-        <v>2149.59232447762</v>
+        <v>2122.957499471493</v>
       </c>
     </row>
     <row r="142">
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="C142">
-        <v>5386.211675973609</v>
+        <v>5346.903526002541</v>
       </c>
     </row>
     <row r="143">
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="C143">
-        <v>2298.379400484264</v>
+        <v>2259.435025462881</v>
       </c>
     </row>
     <row r="144">
@@ -2516,7 +2516,7 @@
         </is>
       </c>
       <c r="C144">
-        <v>1018.985425431281</v>
+        <v>985.2194254472852</v>
       </c>
     </row>
     <row r="145">
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="C145">
-        <v>952.5306498208083</v>
+        <v>940.131724818144</v>
       </c>
     </row>
     <row r="146">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="C146">
-        <v>8501.807375814766</v>
+        <v>8388.465525731444</v>
       </c>
     </row>
     <row r="147">
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="C147">
-        <v>2046.056050466374</v>
+        <v>2022.822525473312</v>
       </c>
     </row>
     <row r="148">
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="C148">
-        <v>8005.267025491223</v>
+        <v>7909.025025583804</v>
       </c>
     </row>
     <row r="149">
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="C149">
-        <v>6324.513900941238</v>
+        <v>6242.007151031867</v>
       </c>
     </row>
     <row r="150">
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="C150">
-        <v>1428.602274892852</v>
+        <v>1411.446649910882</v>
       </c>
     </row>
     <row r="151">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="C151">
-        <v>2513.156825432554</v>
+        <v>2479.841050470248</v>
       </c>
     </row>
     <row r="152">
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="C152">
-        <v>9372.451699838974</v>
+        <v>9328.126749786548</v>
       </c>
     </row>
     <row r="153">
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="C153">
-        <v>1777.660374589264</v>
+        <v>1776.366945995018</v>
       </c>
     </row>
     <row r="154">
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="C154">
-        <v>3702.229597233469</v>
+        <v>3669.723721272661</v>
       </c>
     </row>
     <row r="155">
@@ -2681,7 +2681,7 @@
         </is>
       </c>
       <c r="C155">
-        <v>1168.681681547314</v>
+        <v>1148.330795666203</v>
       </c>
     </row>
     <row r="156">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="C156">
-        <v>3581.884154777043</v>
+        <v>3565.896175685339</v>
       </c>
     </row>
     <row r="157">
@@ -2711,7 +2711,7 @@
         </is>
       </c>
       <c r="C157">
-        <v>1023.880249493755</v>
+        <v>1023.028765888885</v>
       </c>
     </row>
     <row r="158">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="C158">
-        <v>36042.69518466992</v>
+        <v>35922.20369036449</v>
       </c>
     </row>
     <row r="159">
@@ -2736,7 +2736,7 @@
         </is>
       </c>
       <c r="C159">
-        <v>5789.382136441767</v>
+        <v>5679.812822163105</v>
       </c>
     </row>
     <row r="160">
@@ -2751,7 +2751,7 @@
         </is>
       </c>
       <c r="C160">
-        <v>7488.940158933401</v>
+        <v>7438.677259787917</v>
       </c>
     </row>
     <row r="161">
@@ -2766,7 +2766,7 @@
         </is>
       </c>
       <c r="C161">
-        <v>6436.922602225095</v>
+        <v>6264.526747893542</v>
       </c>
     </row>
     <row r="162">
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="C162">
-        <v>2797.642666395754</v>
+        <v>2769.329979304224</v>
       </c>
     </row>
     <row r="163">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="C163">
-        <v>1698.497455091216</v>
+        <v>1686.664124579169</v>
       </c>
     </row>
     <row r="164">
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="C164">
-        <v>5006.346928216517</v>
+        <v>4954.096619732678</v>
       </c>
     </row>
     <row r="165">
@@ -2826,7 +2826,7 @@
         </is>
       </c>
       <c r="C165">
-        <v>1586.323144753464</v>
+        <v>1553.44436249882</v>
       </c>
     </row>
     <row r="166">
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="C166">
-        <v>3502.907619148493</v>
+        <v>3418.027852814645</v>
       </c>
     </row>
     <row r="167">
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="C167">
-        <v>2251.949540753849</v>
+        <v>2206.517855263315</v>
       </c>
     </row>
     <row r="168">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="C168">
-        <v>4104.842746019363</v>
+        <v>4028.679217010736</v>
       </c>
     </row>
     <row r="169">
@@ -2886,7 +2886,7 @@
         </is>
       </c>
       <c r="C169">
-        <v>4404.214494053274</v>
+        <v>4302.055606227368</v>
       </c>
     </row>
     <row r="170">
@@ -2901,7 +2901,7 @@
         </is>
       </c>
       <c r="C170">
-        <v>2066.362746637315</v>
+        <v>2010.624060276896</v>
       </c>
     </row>
     <row r="171">
@@ -2916,7 +2916,7 @@
         </is>
       </c>
       <c r="C171">
-        <v>3479.964572789147</v>
+        <v>3359.354714142159</v>
       </c>
     </row>
     <row r="172">
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="C172">
-        <v>3311.275026566349</v>
+        <v>3249.443693361245</v>
       </c>
     </row>
     <row r="173">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="C173">
-        <v>1939.94807605911</v>
+        <v>1855.262304714881</v>
       </c>
     </row>
     <row r="174">
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="C174">
-        <v>6013.999055508524</v>
+        <v>5970.117072701454</v>
       </c>
     </row>
     <row r="175">
@@ -2976,7 +2976,7 @@
         </is>
       </c>
       <c r="C175">
-        <v>4162.482844147831</v>
+        <v>3983.372701063752</v>
       </c>
     </row>
     <row r="176">
@@ -2991,7 +2991,7 @@
         </is>
       </c>
       <c r="C176">
-        <v>6846.188116237521</v>
+        <v>6807.037690356374</v>
       </c>
     </row>
     <row r="177">
@@ -3006,7 +3006,7 @@
         </is>
       </c>
       <c r="C177">
-        <v>828.4335233108141</v>
+        <v>824.5022503021173</v>
       </c>
     </row>
     <row r="178">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="C178">
-        <v>4271.308024419472</v>
+        <v>4247.264170384035</v>
       </c>
     </row>
     <row r="179">
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="C179">
-        <v>5226.674511101097</v>
+        <v>5212.211050305516</v>
       </c>
     </row>
     <row r="180">
@@ -3051,7 +3051,7 @@
         </is>
       </c>
       <c r="C180">
-        <v>1282.523662502877</v>
+        <v>1276.18923635222</v>
       </c>
     </row>
     <row r="181">
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="C181">
-        <v>450.2990379007533</v>
+        <v>446.5378191205673</v>
       </c>
     </row>
     <row r="182">
@@ -3081,7 +3081,7 @@
         </is>
       </c>
       <c r="C182">
-        <v>498.0646134922281</v>
+        <v>496.3424012754112</v>
       </c>
     </row>
     <row r="183">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="C183">
-        <v>4613.157005207613</v>
+        <v>4397.199398439378</v>
       </c>
     </row>
     <row r="184">
@@ -3111,7 +3111,7 @@
         </is>
       </c>
       <c r="C184">
-        <v>3639.124772848561</v>
+        <v>3597.939534278587</v>
       </c>
     </row>
     <row r="185">
@@ -3126,7 +3126,7 @@
         </is>
       </c>
       <c r="C185">
-        <v>6042.642062228173</v>
+        <v>5081.170050099492</v>
       </c>
     </row>
     <row r="186">
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="C186">
-        <v>3750.362869175151</v>
+        <v>3551.306122586131</v>
       </c>
     </row>
     <row r="187">
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="C187">
-        <v>4928.99959731847</v>
+        <v>4668.988778075203</v>
       </c>
     </row>
     <row r="188">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="C188">
-        <v>4590.198446823284</v>
+        <v>4589.207765018567</v>
       </c>
     </row>
     <row r="189">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="C189">
-        <v>3221.667682768777</v>
+        <v>2761.098254831508</v>
       </c>
     </row>
     <row r="190">
@@ -3201,7 +3201,7 @@
         </is>
       </c>
       <c r="C190">
-        <v>2859.253883115947</v>
+        <v>2813.916403919458</v>
       </c>
     </row>
     <row r="191">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="C191">
-        <v>5099.824135456234</v>
+        <v>5088.379422325641</v>
       </c>
     </row>
     <row r="192">
@@ -3231,7 +3231,7 @@
         </is>
       </c>
       <c r="C192">
-        <v>3273.80020786263</v>
+        <v>3265.681007561274</v>
       </c>
     </row>
     <row r="193">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="C193">
-        <v>1692.398013060447</v>
+        <v>1684.800263464916</v>
       </c>
     </row>
     <row r="194">
@@ -3261,7 +3261,7 @@
         </is>
       </c>
       <c r="C194">
-        <v>2887.183199196123</v>
+        <v>2873.788642161526</v>
       </c>
     </row>
     <row r="195">
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="C195">
-        <v>4155.283395534847</v>
+        <v>4141.308539866004</v>
       </c>
     </row>
     <row r="196">
@@ -3291,7 +3291,7 @@
         </is>
       </c>
       <c r="C196">
-        <v>1590.496557428967</v>
+        <v>1585.891625061166</v>
       </c>
     </row>
     <row r="197">
@@ -3306,7 +3306,7 @@
         </is>
       </c>
       <c r="C197">
-        <v>717.7988914698362</v>
+        <v>714.348831275478</v>
       </c>
     </row>
     <row r="198">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="C198">
-        <v>996.629863448441</v>
+        <v>993.4108699681237</v>
       </c>
     </row>
     <row r="199">
@@ -3336,7 +3336,7 @@
         </is>
       </c>
       <c r="C199">
-        <v>2029.026755571045</v>
+        <v>1975.936330978904</v>
       </c>
     </row>
     <row r="200">
@@ -3351,7 +3351,7 @@
         </is>
       </c>
       <c r="C200">
-        <v>1883.695958395489</v>
+        <v>1860.944123302586</v>
       </c>
     </row>
     <row r="201">
@@ -3366,7 +3366,7 @@
         </is>
       </c>
       <c r="C201">
-        <v>1387.978412683122</v>
+        <v>1386.937103799544</v>
       </c>
     </row>
     <row r="202">
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="C202">
-        <v>3553.677530189976</v>
+        <v>3550.454112796113</v>
       </c>
     </row>
     <row r="203">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="C203">
-        <v>2510.427142534405</v>
+        <v>2509.237499337643</v>
       </c>
     </row>
     <row r="204">
@@ -3411,7 +3411,7 @@
         </is>
       </c>
       <c r="C204">
-        <v>2789.923195898999</v>
+        <v>2788.608547084499</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/LFS_population_urbur.xlsx
+++ b/Tables/LFS_population_urbur.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C204"/>
+  <dimension ref="A1:C203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>7246.422148282174</v>
+        <v>1822.229692673776</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>3407.451201869175</v>
+        <v>866.5610000127926</v>
       </c>
     </row>
     <row r="4">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>6407.841835316271</v>
+        <v>1618.910482699517</v>
       </c>
     </row>
     <row r="5">
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>1868.958790569275</v>
+        <v>466.5749200123246</v>
       </c>
     </row>
     <row r="6">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>3217.835224707931</v>
+        <v>799.7141010717896</v>
       </c>
     </row>
     <row r="7">
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>1510.237247537822</v>
+        <v>379.8916194848716</v>
       </c>
     </row>
     <row r="8">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>2816.879715695977</v>
+        <v>703.5207492820919</v>
       </c>
     </row>
     <row r="9">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>2024.974182330072</v>
+        <v>516.752869643271</v>
       </c>
     </row>
     <row r="10">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>2134.219133000821</v>
+        <v>545.6389206163585</v>
       </c>
     </row>
     <row r="11">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>676.4374323524535</v>
+        <v>169.8639900386333</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>1898.635578416288</v>
+        <v>475.7890601158142</v>
       </c>
     </row>
     <row r="13">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>1670.657044320367</v>
+        <v>419.4035099577159</v>
       </c>
     </row>
     <row r="14">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>485.2989325448871</v>
+        <v>121.3705800399184</v>
       </c>
     </row>
     <row r="15">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>790.0772543549538</v>
+        <v>195.7366500869393</v>
       </c>
     </row>
     <row r="16">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>1067.457096412778</v>
+        <v>271.6134902685881</v>
       </c>
     </row>
     <row r="17">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>1346.081802494824</v>
+        <v>351.6327201351523</v>
       </c>
     </row>
     <row r="18">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>1640.891188845038</v>
+        <v>416.5156603530049</v>
       </c>
     </row>
     <row r="19">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>1772.944710634649</v>
+        <v>458.9794597774744</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>4203.767023846507</v>
+        <v>1076.228019542992</v>
       </c>
     </row>
     <row r="21">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>2464.694871157408</v>
+        <v>634.7866302654147</v>
       </c>
     </row>
     <row r="22">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>1654.414522502106</v>
+        <v>413.1498950617388</v>
       </c>
     </row>
     <row r="23">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>2818.706995502114</v>
+        <v>707.612469792366</v>
       </c>
     </row>
     <row r="24">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>2738.295788027346</v>
+        <v>688.5566295981407</v>
       </c>
     </row>
     <row r="25">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>2419.956720419228</v>
+        <v>606.3991816788912</v>
       </c>
     </row>
     <row r="26">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>2106.115939848125</v>
+        <v>530.649180226028</v>
       </c>
     </row>
     <row r="27">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>2925.278712183237</v>
+        <v>738.2153882980347</v>
       </c>
     </row>
     <row r="28">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>3319.092219553888</v>
+        <v>838.0808032974601</v>
       </c>
     </row>
     <row r="29">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>2325.963633924723</v>
+        <v>586.8504196926951</v>
       </c>
     </row>
     <row r="30">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>2286.407834023237</v>
+        <v>578.0065205842257</v>
       </c>
     </row>
     <row r="31">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>23521.06178649887</v>
+        <v>5959.650101486593</v>
       </c>
     </row>
     <row r="32">
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>27933.54461376509</v>
+        <v>7073.037503382191</v>
       </c>
     </row>
     <row r="33">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>7392.833481244743</v>
+        <v>1864.773178093135</v>
       </c>
     </row>
     <row r="34">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>4949.056054495275</v>
+        <v>1248.549497403204</v>
       </c>
     </row>
     <row r="35">
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>1294.617556646466</v>
+        <v>330.8032293654978</v>
       </c>
     </row>
     <row r="36">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>3816.954357873648</v>
+        <v>985.0763001069427</v>
       </c>
     </row>
     <row r="37">
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>12555.19084711745</v>
+        <v>3209.012165956199</v>
       </c>
     </row>
     <row r="38">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>3023.644503831863</v>
+        <v>751.5842778384686</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>15804.21912956238</v>
+        <v>3990.80369579792</v>
       </c>
     </row>
     <row r="40">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>34672.53593325987</v>
+        <v>8809.326826374978</v>
       </c>
     </row>
     <row r="41">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>8193.423070669174</v>
+        <v>2076.739491701126</v>
       </c>
     </row>
     <row r="42">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>1903.368155315518</v>
+        <v>479.9086093604565</v>
       </c>
     </row>
     <row r="43">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>7775.979552073171</v>
+        <v>1979.484324106714</v>
       </c>
     </row>
     <row r="44">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>4059.698226772249</v>
+        <v>1026.084502995014</v>
       </c>
     </row>
     <row r="45">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>5791.440207947046</v>
+        <v>1455.106035519391</v>
       </c>
     </row>
     <row r="46">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>4101.50480248034</v>
+        <v>1037.978832609951</v>
       </c>
     </row>
     <row r="47">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>3802.934130125679</v>
+        <v>955.6159344688058</v>
       </c>
     </row>
     <row r="48">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>1558.697548192926</v>
+        <v>389.6478729071096</v>
       </c>
     </row>
     <row r="49">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="C49">
-        <v>2321.888135971501</v>
+        <v>580.120635272935</v>
       </c>
     </row>
     <row r="50">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>2619.047576738521</v>
+        <v>660.3037818446755</v>
       </c>
     </row>
     <row r="51">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>1115.635725319386</v>
+        <v>280.9409825392067</v>
       </c>
     </row>
     <row r="52">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>2616.673027414363</v>
+        <v>661.8889303319156</v>
       </c>
     </row>
     <row r="53">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>5817.901247955859</v>
+        <v>1432.026297807693</v>
       </c>
     </row>
     <row r="54">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>270.5484999530017</v>
+        <v>71.22615251876414</v>
       </c>
     </row>
     <row r="55">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>499.4172894936055</v>
+        <v>127.6672101728618</v>
       </c>
     </row>
     <row r="56">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>884.2198134809732</v>
+        <v>242.2555202487856</v>
       </c>
     </row>
     <row r="57">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>788.5638856049627</v>
+        <v>204.7357851797715</v>
       </c>
     </row>
     <row r="58">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>2466.938618162647</v>
+        <v>625.1941419523209</v>
       </c>
     </row>
     <row r="59">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="C59">
-        <v>331.7537194918841</v>
+        <v>85.2086323350668</v>
       </c>
     </row>
     <row r="60">
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>423.1177435489371</v>
+        <v>109.1129149431363</v>
       </c>
     </row>
     <row r="61">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>946.5636507552117</v>
+        <v>232.2083049993962</v>
       </c>
     </row>
     <row r="62">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>267.0262394156307</v>
+        <v>73.01906506996602</v>
       </c>
     </row>
     <row r="63">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="C63">
-        <v>833.3163765966892</v>
+        <v>198.8245777562261</v>
       </c>
     </row>
     <row r="64">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>738.2462562974542</v>
+        <v>187.6802822183818</v>
       </c>
     </row>
     <row r="65">
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="C65">
-        <v>780.9000343754888</v>
+        <v>198.43483277224</v>
       </c>
     </row>
     <row r="66">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="C66">
-        <v>4308.155137816444</v>
+        <v>1089.352680891752</v>
       </c>
     </row>
     <row r="67">
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="C67">
-        <v>1544.823458060622</v>
+        <v>386.1579290777445</v>
       </c>
     </row>
     <row r="68">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>960.7613994851708</v>
+        <v>243.1642500683665</v>
       </c>
     </row>
     <row r="69">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="C69">
-        <v>3697.863938622177</v>
+        <v>934.719480201602</v>
       </c>
     </row>
     <row r="70">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="C70">
-        <v>1131.622720714658</v>
+        <v>288.6572000309825</v>
       </c>
     </row>
     <row r="71">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="C71">
-        <v>554.8312404192984</v>
+        <v>140.010550301522</v>
       </c>
     </row>
     <row r="72">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="C72">
-        <v>2299.260242147371</v>
+        <v>585.9756112322211</v>
       </c>
     </row>
     <row r="73">
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="C73">
-        <v>12228.76967436075</v>
+        <v>3086.976781509817</v>
       </c>
     </row>
     <row r="74">
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="C74">
-        <v>3891.094219256192</v>
+        <v>985.0062107332051</v>
       </c>
     </row>
     <row r="75">
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>3257.746209844947</v>
+        <v>823.2087004855275</v>
       </c>
     </row>
     <row r="76">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>1539.029900228605</v>
+        <v>388.2919805049896</v>
       </c>
     </row>
     <row r="77">
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>13531.29179481044</v>
+        <v>3431.849283263087</v>
       </c>
     </row>
     <row r="78">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>8176.604319095612</v>
+        <v>2079.01058986783</v>
       </c>
     </row>
     <row r="79">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>2200.554179377854</v>
+        <v>567.3553189262748</v>
       </c>
     </row>
     <row r="80">
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>12269.49537996575</v>
+        <v>3104.840209014714</v>
       </c>
     </row>
     <row r="81">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>2446.397801466286</v>
+        <v>611.8733302354813</v>
       </c>
     </row>
     <row r="82">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>106.7026100978255</v>
+        <v>27.18200004845858</v>
       </c>
     </row>
     <row r="83">
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="C83">
-        <v>122.0663297101855</v>
+        <v>28.47822989523411</v>
       </c>
     </row>
     <row r="84">
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="C84">
-        <v>3504.83133078739</v>
+        <v>900.7742000669241</v>
       </c>
     </row>
     <row r="85">
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>2476.572609879076</v>
+        <v>627.3075994476676</v>
       </c>
     </row>
     <row r="86">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="C86">
-        <v>3402.393111422658</v>
+        <v>851.2740626484156</v>
       </c>
     </row>
     <row r="87">
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="C87">
-        <v>2032.258734129369</v>
+        <v>515.2511498853564</v>
       </c>
     </row>
     <row r="88">
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="C88">
-        <v>2185.40206617862</v>
+        <v>547.5226199701428</v>
       </c>
     </row>
     <row r="89">
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="C89">
-        <v>62.56010957807302</v>
+        <v>15.76898005977273</v>
       </c>
     </row>
     <row r="90">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="C90">
-        <v>22136.5718165189</v>
+        <v>5503.274311646819</v>
       </c>
     </row>
     <row r="91">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="C91">
-        <v>4050.667940095067</v>
+        <v>996.6805703341961</v>
       </c>
     </row>
     <row r="92">
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="C92">
-        <v>2615.344818964601</v>
+        <v>648.7722195833921</v>
       </c>
     </row>
     <row r="93">
@@ -1751,7 +1751,7 @@
         </is>
       </c>
       <c r="C93">
-        <v>1862.585044130683</v>
+        <v>450.6329287290573</v>
       </c>
     </row>
     <row r="94">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="C94">
-        <v>2284.718699142337</v>
+        <v>541.2297496944666</v>
       </c>
     </row>
     <row r="95">
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>2936.211734831333</v>
+        <v>749.7370690703392</v>
       </c>
     </row>
     <row r="96">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="C96">
-        <v>6028.490624085069</v>
+        <v>1447.349729761481</v>
       </c>
     </row>
     <row r="97">
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="C97">
-        <v>2946.266590118408</v>
+        <v>733.5455502569675</v>
       </c>
     </row>
     <row r="98">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="C98">
-        <v>3348.739187881351</v>
+        <v>845.9626897424459</v>
       </c>
     </row>
     <row r="99">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="C99">
-        <v>1941.762964628637</v>
+        <v>501.0608393773437</v>
       </c>
     </row>
     <row r="100">
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="C100">
-        <v>3541.414404556155</v>
+        <v>903.772190824151</v>
       </c>
     </row>
     <row r="101">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="C101">
-        <v>6259.533731162548</v>
+        <v>1585.811208128929</v>
       </c>
     </row>
     <row r="102">
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="C102">
-        <v>5397.88582727313</v>
+        <v>1327.218371778727</v>
       </c>
     </row>
     <row r="103">
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="C103">
-        <v>5727.286701843143</v>
+        <v>1440.900921329856</v>
       </c>
     </row>
     <row r="104">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="C104">
-        <v>1119.77961333096</v>
+        <v>284.645670324564</v>
       </c>
     </row>
     <row r="105">
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="C105">
-        <v>2834.546079576015</v>
+        <v>703.9632204174995</v>
       </c>
     </row>
     <row r="106">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="C106">
-        <v>4190.127391263843</v>
+        <v>1043.351250484586</v>
       </c>
     </row>
     <row r="107">
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="C107">
-        <v>5062.875762373209</v>
+        <v>1229.03071051836</v>
       </c>
     </row>
     <row r="108">
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="C108">
-        <v>2196.1100718081</v>
+        <v>544.7257016599178</v>
       </c>
     </row>
     <row r="109">
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="C109">
-        <v>11425.75385148823</v>
+        <v>2904.808261021972</v>
       </c>
     </row>
     <row r="110">
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="C110">
-        <v>7929.834597766399</v>
+        <v>1971.973347574472</v>
       </c>
     </row>
     <row r="111">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="C111">
-        <v>551.1774496287107</v>
+        <v>134.8802405446768</v>
       </c>
     </row>
     <row r="112">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="C112">
-        <v>462.4405728913844</v>
+        <v>114.3159602917731</v>
       </c>
     </row>
     <row r="113">
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="C113">
-        <v>488.3404849655926</v>
+        <v>125.4797599837184</v>
       </c>
     </row>
     <row r="114">
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="C114">
-        <v>261.6633116798475</v>
+        <v>60.30991998687387</v>
       </c>
     </row>
     <row r="115">
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="C115">
-        <v>1043.068258330226</v>
+        <v>259.3111295104027</v>
       </c>
     </row>
     <row r="116">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="C116">
-        <v>390.9287046650425</v>
+        <v>389.8727382272482</v>
       </c>
     </row>
     <row r="117">
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="C117">
-        <v>2114.174892925657</v>
+        <v>533.4908294994384</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>HR04_Kontinentalna Hrvatska (old)</t>
+          <t>HR05_Grad Zagreb</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2126,58 +2126,58 @@
         </is>
       </c>
       <c r="C118">
-        <v>3351.118055569008</v>
+        <v>366.6802325919271</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>HR05_Grad Zagreb</t>
+          <t>HR06_Sjeverna Hrvatska</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Capital region</t>
+          <t>Mainly rural</t>
         </is>
       </c>
       <c r="C119">
-        <v>361.8167428653687</v>
+        <v>369.1199998669326</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>HR06_Sjeverna Hrvatska</t>
+          <t>HU11_Budapest</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Mainly rural</t>
+          <t>Capital region</t>
         </is>
       </c>
       <c r="C120">
-        <v>368.4210147038102</v>
+        <v>847.8960106568411</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>HU11_Budapest</t>
+          <t>HU12_Pest</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Capital region</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="C121">
-        <v>3404.171700930223</v>
+        <v>613.4384675947949</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>HU12_Pest</t>
+          <t>HU21_Közép-Dunántúl</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2186,13 +2186,13 @@
         </is>
       </c>
       <c r="C122">
-        <v>2483.984030636027</v>
+        <v>504.951479983516</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>HU21_Közép-Dunántúl</t>
+          <t>HU22_Nyugat-Dunántúl</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2201,43 +2201,43 @@
         </is>
       </c>
       <c r="C123">
-        <v>2030.437478450127</v>
+        <v>487.0752958199009</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>HU22_Nyugat-Dunántúl</t>
+          <t>HU23_Dél-Dunántúl</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Mainly rural</t>
         </is>
       </c>
       <c r="C124">
-        <v>1949.429265287705</v>
+        <v>372.1900222254917</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>HU23_Dél-Dunántúl</t>
+          <t>HU31_Észak-Magyarország</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Mainly rural</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="C125">
-        <v>1484.058688274585</v>
+        <v>480.7365793222561</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>HU31_Észak-Magyarország</t>
+          <t>HU32_Észak-Alföld</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2246,13 +2246,13 @@
         </is>
       </c>
       <c r="C126">
-        <v>1912.316659367643</v>
+        <v>638.1263223998249</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>HU32_Észak-Alföld</t>
+          <t>HU33_Dél-Alföld</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2261,28 +2261,28 @@
         </is>
       </c>
       <c r="C127">
-        <v>2542.231763969176</v>
+        <v>558.7240248024464</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>HU33_Dél-Alföld</t>
+          <t>IE04_Northern and Western</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Mainly rural</t>
         </is>
       </c>
       <c r="C128">
-        <v>2234.862210414372</v>
+        <v>395.4948976105079</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>IE04_Northern and Western</t>
+          <t>IE05_Southern</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2291,73 +2291,73 @@
         </is>
       </c>
       <c r="C129">
-        <v>1576.425586805679</v>
+        <v>731.5319409165531</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>IE05_Southern</t>
+          <t>IE06_Eastern and Midland</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Mainly rural</t>
+          <t>Capital region</t>
         </is>
       </c>
       <c r="C130">
-        <v>2933.172101716511</v>
+        <v>1183.692933133803</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>IE06_Eastern and Midland</t>
+          <t>ITC1_Piemonte</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Capital region</t>
+          <t>Mainly urban</t>
         </is>
       </c>
       <c r="C131">
-        <v>4697.260952572338</v>
+        <v>1794.015049679205</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ITC1_Piemonte</t>
+          <t>ITC2_Valle d'Aosta/Vallée d'Aoste</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Mainly urban</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="C132">
-        <v>7084.753723810427</v>
+        <v>54.54240011051297</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ITC2_Valle d'Aosta/Vallée d'Aoste</t>
+          <t>ITC3_Liguria</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Mainly urban</t>
         </is>
       </c>
       <c r="C133">
-        <v>213.7554004276171</v>
+        <v>602.7789749316871</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ITC3_Liguria</t>
+          <t>ITC4_Lombardia</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2366,58 +2366,58 @@
         </is>
       </c>
       <c r="C134">
-        <v>2385.761798873544</v>
+        <v>4431.25029877387</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ITC4_Lombardia</t>
+          <t>ITF1_Abruzzo</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Mainly urban</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="C135">
-        <v>17473.13919559121</v>
+        <v>494.2821494936943</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ITF1_Abruzzo</t>
+          <t>ITF2_Molise</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Mainly rural</t>
         </is>
       </c>
       <c r="C136">
-        <v>1954.55129875429</v>
+        <v>106.1698749912903</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ITF2_Molise</t>
+          <t>ITF3_Campania</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Mainly rural</t>
+          <t>Mainly urban</t>
         </is>
       </c>
       <c r="C137">
-        <v>412.498899995815</v>
+        <v>1632.252999674529</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ITF3_Campania</t>
+          <t>ITF4_Puglia</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2426,103 +2426,103 @@
         </is>
       </c>
       <c r="C138">
-        <v>6451.890599157661</v>
+        <v>1211.332425471395</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ITF4_Puglia</t>
+          <t>ITF5_Basilicata</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Mainly urban</t>
+          <t>Mainly rural</t>
         </is>
       </c>
       <c r="C139">
-        <v>4806.64044980891</v>
+        <v>186.2859998969361</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ITF5_Basilicata</t>
+          <t>ITF6_Calabria</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Mainly rural</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="C140">
-        <v>738.9346249904484</v>
+        <v>544.0374494511634</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ITF6_Calabria</t>
+          <t>ITG1_Sicilia</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Mainly urban</t>
         </is>
       </c>
       <c r="C141">
-        <v>2122.957499471493</v>
+        <v>1353.746825836599</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ITG1_Sicilia</t>
+          <t>ITG2_Sardegna</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Mainly urban</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="C142">
-        <v>5346.903526002541</v>
+        <v>580.3835751507431</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ITG2_Sardegna</t>
+          <t>ITH1_Provincia Autonoma di Bolzano/Bozen</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Mainly rural</t>
         </is>
       </c>
       <c r="C143">
-        <v>2259.435025462881</v>
+        <v>250.2279499955475</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ITH1_Provincia Autonoma di Bolzano/Bozen</t>
+          <t>ITH2_Provincia Autonoma di Trento</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Mainly rural</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="C144">
-        <v>985.2194254472852</v>
+        <v>237.1960249352269</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ITH2_Provincia Autonoma di Trento</t>
+          <t>ITH3_Veneto</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2531,13 +2531,13 @@
         </is>
       </c>
       <c r="C145">
-        <v>940.131724818144</v>
+        <v>2133.044125574641</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ITH3_Veneto</t>
+          <t>ITH4_Friuli-Venezia Giulia</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2546,13 +2546,13 @@
         </is>
       </c>
       <c r="C146">
-        <v>8388.465525731444</v>
+        <v>506.4593504033983</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ITH4_Friuli-Venezia Giulia</t>
+          <t>ITH5_Emilia-Romagna</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2561,13 +2561,13 @@
         </is>
       </c>
       <c r="C147">
-        <v>2022.822525473312</v>
+        <v>2004.769375385717</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ITH5_Emilia-Romagna</t>
+          <t>ITI1_Toscana</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2576,13 +2576,13 @@
         </is>
       </c>
       <c r="C148">
-        <v>7909.025025583804</v>
+        <v>1578.31082611531</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ITI1_Toscana</t>
+          <t>ITI2_Umbria</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2591,13 +2591,13 @@
         </is>
       </c>
       <c r="C149">
-        <v>6242.007151031867</v>
+        <v>358.0166499167681</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ITI2_Umbria</t>
+          <t>ITI3_Marche</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2606,28 +2606,28 @@
         </is>
       </c>
       <c r="C150">
-        <v>1411.446649910882</v>
+        <v>627.1199753843248</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ITI3_Marche</t>
+          <t>ITI4_Lazio</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Capital region</t>
         </is>
       </c>
       <c r="C151">
-        <v>2479.841050470248</v>
+        <v>2374.545050445944</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ITI4_Lazio</t>
+          <t>LT01_Sostinės regionas</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2636,43 +2636,43 @@
         </is>
       </c>
       <c r="C152">
-        <v>9328.126749786548</v>
+        <v>442.3779745823704</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>LT01_Sostinės regionas</t>
+          <t>LT02_Vidurio ir vakarų Lietuvos regionas</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Capital region</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="C153">
-        <v>1776.366945995018</v>
+        <v>927.9027274438995</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>LT02_Vidurio ir vakarų Lietuvos regionas</t>
+          <t>LU00_Luxembourg</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Regions undifferentiated</t>
         </is>
       </c>
       <c r="C154">
-        <v>3669.723721272661</v>
+        <v>284.6218877565116</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>LU00_Luxembourg</t>
+          <t>LV00_Latvia</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2681,13 +2681,13 @@
         </is>
       </c>
       <c r="C155">
-        <v>1148.330795666203</v>
+        <v>907.7785996645689</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>LV00_Latvia</t>
+          <t>MT00_Malta</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2696,13 +2696,13 @@
         </is>
       </c>
       <c r="C156">
-        <v>3565.896175685339</v>
+        <v>254.4845003215596</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>MT00_Malta</t>
+          <t>NL00_The Netherlands</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2711,68 +2711,73 @@
         </is>
       </c>
       <c r="C157">
-        <v>1023.028765888885</v>
+        <v>8956.119898339733</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>NL00_The Netherlands</t>
+          <t>PL21_Małopolskie</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
         </is>
       </c>
       <c r="C158">
-        <v>35922.20369036449</v>
+        <v>1406.03553840518</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>PL21_Małopolskie</t>
+          <t>PL22_Śląskie</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Mainly rural</t>
+          <t>Mainly urban</t>
         </is>
       </c>
       <c r="C159">
-        <v>5679.812822163105</v>
+        <v>1852.450410172343</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>PL22_Śląskie</t>
+          <t>PL41_Wielkopolskie</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Mainly urban</t>
+          <t>Mainly rural</t>
         </is>
       </c>
       <c r="C160">
-        <v>7438.677259787917</v>
+        <v>1555.281758740544</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>PL41_Wielkopolskie</t>
+          <t>PL42_Zachodniopomorskie</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Mainly rural</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="C161">
-        <v>6264.526747893542</v>
+        <v>688.0978971496224</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PL42_Zachodniopomorskie</t>
+          <t>PL43_Lubuskie</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2781,13 +2786,13 @@
         </is>
       </c>
       <c r="C162">
-        <v>2769.329979304224</v>
+        <v>422.9841829203069</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>PL43_Lubuskie</t>
+          <t>PL51_Dolnośląskie</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2796,13 +2801,13 @@
         </is>
       </c>
       <c r="C163">
-        <v>1686.664124579169</v>
+        <v>1247.151921525598</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>PL51_Dolnośląskie</t>
+          <t>PL52_Opolskie</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2811,43 +2816,43 @@
         </is>
       </c>
       <c r="C164">
-        <v>4954.096619732678</v>
+        <v>382.8206422943622</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>PL52_Opolskie</t>
+          <t>PL61_Kujawsko-pomorskie</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Mainly rural</t>
         </is>
       </c>
       <c r="C165">
-        <v>1553.44436249882</v>
+        <v>849.1138699557632</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>PL61_Kujawsko-pomorskie</t>
+          <t>PL62_Warmińsko-mazurskie</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Mainly rural</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="C166">
-        <v>3418.027852814645</v>
+        <v>544.9495240934193</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>PL62_Warmińsko-mazurskie</t>
+          <t>PL63_Pomorskie</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2856,58 +2861,58 @@
         </is>
       </c>
       <c r="C167">
-        <v>2206.517855263315</v>
+        <v>1010.170129083097</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>PL63_Pomorskie</t>
+          <t>PL71_Łódzkie</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Mainly rural</t>
         </is>
       </c>
       <c r="C168">
-        <v>4028.679217010736</v>
+        <v>1059.483837224543</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>PL71_Łódzkie</t>
+          <t>PL72_Świętokrzyskie</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Mainly rural</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="C169">
-        <v>4302.055606227368</v>
+        <v>498.4171632211655</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>PL72_Świętokrzyskie</t>
+          <t>PL81_Lubelskie</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Mainly rural</t>
         </is>
       </c>
       <c r="C170">
-        <v>2010.624060276896</v>
+        <v>834.6353322342038</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>PL81_Lubelskie</t>
+          <t>PL82_Podkarpackie</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2916,13 +2921,13 @@
         </is>
       </c>
       <c r="C171">
-        <v>3359.354714142159</v>
+        <v>816.7211878877133</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>PL82_Podkarpackie</t>
+          <t>PL84_Podlaskie</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2931,163 +2936,163 @@
         </is>
       </c>
       <c r="C172">
-        <v>3249.443693361245</v>
+        <v>457.9121946506202</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>PL84_Podlaskie</t>
+          <t>PL91_Warszawski stołeczny</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Mainly rural</t>
+          <t>Capital region</t>
         </is>
       </c>
       <c r="C173">
-        <v>1855.262304714881</v>
+        <v>1501.608274709433</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>PL91_Warszawski stołeczny</t>
+          <t>PL92_Mazowiecki regionalny</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Capital region</t>
+          <t>Mainly rural</t>
         </is>
       </c>
       <c r="C174">
-        <v>5970.117072701454</v>
+        <v>979.2786763906479</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>PL92_Mazowiecki regionalny</t>
+          <t>PT11_Norte</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Mainly rural</t>
+          <t>Mainly urban</t>
         </is>
       </c>
       <c r="C175">
-        <v>3983.372701063752</v>
+        <v>1709.096812471747</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>PT11_Norte</t>
+          <t>PT15_Algarve</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Mainly urban</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="C176">
-        <v>6807.037690356374</v>
+        <v>209.8772273855284</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>PT15_Algarve</t>
+          <t>PT16_Centro (PT)</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Mainly rural</t>
         </is>
       </c>
       <c r="C177">
-        <v>824.5022503021173</v>
+        <v>1086.218420123681</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>PT16_Centro (PT)</t>
+          <t>PT17_Área Metropolitana de Lisboa</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Mainly rural</t>
+          <t>Capital region</t>
         </is>
       </c>
       <c r="C178">
-        <v>4247.264170384035</v>
+        <v>1329.353132523596</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PT17_Área Metropolitana de Lisboa</t>
+          <t>PT18_Alentejo</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Capital region</t>
+          <t>Mainly rural</t>
         </is>
       </c>
       <c r="C179">
-        <v>5212.211050305516</v>
+        <v>318.1801501661539</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>PT18_Alentejo</t>
+          <t>PT20_Região Autónoma dos Açores</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Mainly rural</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="C180">
-        <v>1276.18923635222</v>
+        <v>112.9819500111043</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>PT20_Região Autónoma dos Açores</t>
+          <t>PT30_Região Autónoma da Madeira</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Mainly urban</t>
         </is>
       </c>
       <c r="C181">
-        <v>446.5378191205673</v>
+        <v>128.5709924432449</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>PT30_Região Autónoma da Madeira</t>
+          <t>RO11_Nord-Vest</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Mainly urban</t>
+          <t>Mainly rural</t>
         </is>
       </c>
       <c r="C182">
-        <v>496.3424012754112</v>
+        <v>1110.536463106051</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>RO11_Nord-Vest</t>
+          <t>RO12_Centru</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -3096,13 +3101,13 @@
         </is>
       </c>
       <c r="C183">
-        <v>4397.199398439378</v>
+        <v>907.2139956597239</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>RO12_Centru</t>
+          <t>RO21_Nord-Est</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -3111,178 +3116,178 @@
         </is>
       </c>
       <c r="C184">
-        <v>3597.939534278587</v>
+        <v>1324.993553061038</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>RO21_Nord-Est</t>
+          <t>RO22_Sud-Est</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Mainly rural</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="C185">
-        <v>5081.170050099492</v>
+        <v>905.4111346267164</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>RO22_Sud-Est</t>
+          <t>RO31_Sud-Muntenia</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Mainly rural</t>
         </is>
       </c>
       <c r="C186">
-        <v>3551.306122586131</v>
+        <v>1202.268220027909</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>RO31_Sud-Muntenia</t>
+          <t>RO32_Bucureşti-Ilfov</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Mainly rural</t>
+          <t>Capital region</t>
         </is>
       </c>
       <c r="C187">
-        <v>4668.988778075203</v>
+        <v>1155.995813556015</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>RO32_Bucureşti-Ilfov</t>
+          <t>RO41_Sud-Vest Oltenia</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Capital region</t>
+          <t>Mainly rural</t>
         </is>
       </c>
       <c r="C188">
-        <v>4589.207765018567</v>
+        <v>709.0046199690551</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>RO41_Sud-Vest Oltenia</t>
+          <t>RO42_Vest</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Mainly rural</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="C189">
-        <v>2761.098254831508</v>
+        <v>716.7599522694945</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>RO42_Vest</t>
+          <t>SE11_Stockholm</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Capital region</t>
         </is>
       </c>
       <c r="C190">
-        <v>2813.916403919458</v>
+        <v>1271.421253166161</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>SE11_Stockholm</t>
+          <t>SE12_Östra Mellansverige</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Capital region</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="C191">
-        <v>5088.379422325641</v>
+        <v>827.7871772195213</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SE12_Östra Mellansverige</t>
+          <t>SE21_Småland med öarna</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Mainly rural</t>
         </is>
       </c>
       <c r="C192">
-        <v>3265.681007561274</v>
+        <v>426.5894199348986</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>SE21_Småland med öarna</t>
+          <t>SE22_Sydsverige</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Mainly rural</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="C193">
-        <v>1684.800263464916</v>
+        <v>714.4761653216556</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>SE22_Sydsverige</t>
+          <t>SE23_Västsverige</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Mainly urban</t>
         </is>
       </c>
       <c r="C194">
-        <v>2873.788642161526</v>
+        <v>1051.72904514242</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>SE23_Västsverige</t>
+          <t>SE31_Norra Mellansverige</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Mainly urban</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="C195">
-        <v>4141.308539866004</v>
+        <v>405.428535184823</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>SE31_Norra Mellansverige</t>
+          <t>SE32_Mellersta Norrland</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -3291,13 +3296,13 @@
         </is>
       </c>
       <c r="C196">
-        <v>1585.891625061166</v>
+        <v>176.8059797817841</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>SE32_Mellersta Norrland</t>
+          <t>SE33_Övre Norrland</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3306,43 +3311,43 @@
         </is>
       </c>
       <c r="C197">
-        <v>714.348831275478</v>
+        <v>244.1157177472487</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>SE33_Övre Norrland</t>
+          <t>SI03_Vzhodna Slovenija</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Mainly rural</t>
         </is>
       </c>
       <c r="C198">
-        <v>993.4108699681237</v>
+        <v>498.4143170836905</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>SI03_Vzhodna Slovenija</t>
+          <t>SI04_Zahodna Slovenija</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Mainly rural</t>
+          <t>Capital region</t>
         </is>
       </c>
       <c r="C199">
-        <v>1975.936330978904</v>
+        <v>467.9770522951148</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>SI04_Zahodna Slovenija</t>
+          <t>SK01_Bratislavský kraj</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -3351,28 +3356,28 @@
         </is>
       </c>
       <c r="C200">
-        <v>1860.944123302586</v>
+        <v>351.2781755998731</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>SK01_Bratislavský kraj</t>
+          <t>SK02_Západné Slovensko</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Capital region</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="C201">
-        <v>1386.937103799544</v>
+        <v>888.6144268251956</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>SK02_Západné Slovensko</t>
+          <t>SK03_Stredné Slovensko</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -3381,37 +3386,22 @@
         </is>
       </c>
       <c r="C202">
-        <v>3550.454112796113</v>
+        <v>635.2745083793998</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>SK03_Stredné Slovensko</t>
+          <t>SK04_Východné Slovensko</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Mainly rural</t>
         </is>
       </c>
       <c r="C203">
-        <v>2509.237499337643</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>SK04_Východné Slovensko</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Mainly rural</t>
-        </is>
-      </c>
-      <c r="C204">
-        <v>2788.608547084499</v>
+        <v>706.3560071960092</v>
       </c>
     </row>
   </sheetData>
